--- a/Tools/Access2JusticeCode.DataImportTool/SampleFiles/Topics importer test file.xlsx
+++ b/Tools/Access2JusticeCode.DataImportTool/SampleFiles/Topics importer test file.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v-sobhad\Desktop\Clone-A2J\Access2Justice\Tools\Access2Justice.Tools.CsvImporter\SampleFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Source\Repos\LegalNavigator\Tools\Access2JusticeCode.DataImportTool\SampleFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D78304A-DB9C-4F14-8608-83053969FFEC}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A53E911-6677-4403-B674-91323208F425}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,34 +51,70 @@
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 This threaded comment can be viewed, but not edited in your version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924.
 Comment:
     GUID will be assigned by the development team after import, no need to enter it manually. GUIDs will be used to relate resources to topics.</t>
+        </r>
       </text>
     </comment>
     <comment ref="B1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 This threaded comment can be viewed, but not edited in your version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924.
 Comment:
     Name of the topic that will show up in the topic list</t>
+        </r>
       </text>
     </comment>
     <comment ref="C1" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 This threaded comment can be viewed, but not edited in your version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924.
 Comment:
     If a subtopic of another topic, indicate parent topic name</t>
+        </r>
       </text>
     </comment>
     <comment ref="D1" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 This threaded comment can be viewed, but not edited in your version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924.
 Comment:
     Keywords that you want to be associated with the topic. | separated if multiple keywords</t>
+        </r>
       </text>
     </comment>
     <comment ref="E1" authorId="4" shapeId="0" xr:uid="{3EEC9894-E483-4279-933F-931A741A9A3F}">
@@ -108,64 +144,127 @@
     </comment>
     <comment ref="F1" authorId="5" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 This threaded comment can be viewed, but not edited in your version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924.
 Comment:
     Indicate location(s) hierarchy. Most resources will be state-wide, but some may apply to specific county / city or zip codes. For example, it a topic applies only to county of Honolulu, enter Honolulu in Location_County and HI in Location_State</t>
+        </r>
       </text>
     </comment>
     <comment ref="G1" authorId="6" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 This threaded comment can be viewed, but not edited in your version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924.
 Comment:
     Indicate location(s) hierarchy. Most resources will be state-wide, but some may apply to specific county / city or zip codes. For example, if a topic applies only to a county of Honolulu, enter Honolulu in Location_County
  and HI in Location_State.  
 If multiple locations apply, use a pipe delimiter to delineate between locations (" | ")</t>
+        </r>
       </text>
     </comment>
     <comment ref="H1" authorId="7" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 This threaded comment can be viewed, but not edited in your version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924.
 Comment:
     Indicate location(s) hierarchy. Most resources will be state-wide, but some may apply to specific county / city or zip codes. For example, it a topic applies only to city of Aiea, enter Aiea in Location_City and HI in Location_State
 If multiple locations apply, use a pipe delimiter to delineate between locations (" | ")</t>
+        </r>
       </text>
     </comment>
     <comment ref="I1" authorId="8" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 This threaded comment can be viewed, but not edited in your version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924.
 Comment:
     Indicate location(s) hierarchy. Most resources will be state-wide, but some may apply to specific county / city or zip codes. For example, it a topic applies only to zip code 96701, enter 96701 in Location_Zip and HI in Location_State
  If multiple locations apply, use a pipe delimiter to delineate between locations (" | ")</t>
+        </r>
       </text>
     </comment>
     <comment ref="J1" authorId="9" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 This threaded comment can be viewed, but not edited in your version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924.
 Comment:
     General overview of what a topic is about. For example, In row three, this would be a overview paragraph of the divorce topic</t>
+        </r>
       </text>
     </comment>
     <comment ref="K1" authorId="10" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 This threaded comment can be viewed, but not edited in your version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924.
 Comment:
     Direct link to resources to help user learn about the topic.
 If multiple links will be provided, use a pipe delimiter to delineate between the text (" | ")</t>
+        </r>
       </text>
     </comment>
     <comment ref="L1" authorId="11" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 This threaded comment can be viewed, but not edited in your version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924.
 Comment:
     URLs to be hyperlinked to the essential reading text in column J.
 If multiple URLs apply, use a pipe delimiter to delineate between them  (" | ")</t>
+        </r>
       </text>
     </comment>
     <comment ref="M1" authorId="4" shapeId="0" xr:uid="{03C6DE81-727C-4F5D-975C-C00875E0D830}">
@@ -197,98 +296,119 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="30">
-  <si>
-    <t>Topic_ID</t>
-  </si>
-  <si>
-    <t>Topic_Name</t>
-  </si>
-  <si>
-    <t>Parent_Topic</t>
-  </si>
-  <si>
-    <t>Keywords</t>
-  </si>
-  <si>
-    <t>Location_State</t>
-  </si>
-  <si>
-    <t>Location_County</t>
-  </si>
-  <si>
-    <t>Location_City</t>
-  </si>
-  <si>
-    <t>Location_Zip</t>
-  </si>
-  <si>
-    <t>Overview</t>
-  </si>
-  <si>
-    <t>Quick_Links_URL_text</t>
-  </si>
-  <si>
-    <t>Quick_Links_URL_link</t>
-  </si>
-  <si>
-    <t>Alaska</t>
-  </si>
-  <si>
-    <t>Hawaii</t>
-  </si>
-  <si>
-    <t>Movies</t>
-  </si>
-  <si>
-    <t>Concerts</t>
-  </si>
-  <si>
-    <t>film | picture | motion picture | feature | feature film | flick | talkie | moving picture</t>
-  </si>
-  <si>
-    <t>a story or event recorded by a camera as a set of moving images and shown in a theater or on television; a motion picture.</t>
-  </si>
-  <si>
-    <t>https://www.merriam-webster.com/dictionary/movie | https://en.wikipedia.org/wiki/Film | https://www.movies.com</t>
-  </si>
-  <si>
-    <t>Definition of Movie by Merriam-Webster | Film - Wikipedia | Movies.com - Official Site</t>
-  </si>
-  <si>
-    <t>a musical performance given in public, typically by several performers or of several separate compositions.</t>
-  </si>
-  <si>
-    <t>musical performance | musical entertainment | show | production | presentation | recital | prom | promenade concert | pop concert | rock concert | gig | jam session</t>
-  </si>
-  <si>
-    <t>https://www.merriam-webster.com/dictionary/concert | https://en.wikipedia.org/wiki/Concert</t>
-  </si>
-  <si>
-    <t>Definition of Concert by Merriam-Webster | Concert - Wikipedia</t>
-  </si>
-  <si>
-    <t>Horror</t>
-  </si>
-  <si>
-    <t>Comedy</t>
-  </si>
-  <si>
-    <t>Classical</t>
-  </si>
-  <si>
-    <t>Rock</t>
-  </si>
-  <si>
-    <t>Organizational Unit</t>
-  </si>
-  <si>
-    <t>Icon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Classical </t>
-  </si>
-</sst>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="37">
+  <x:si>
+    <x:t>Topic_ID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Topic_Name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Parent_Topic</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Keywords</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Location_State</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Location_County</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Location_City</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Location_Zip</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Overview</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Quick_Links_URL_text</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Quick_Links_URL_link</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Alaska</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hawaii</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Movies</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Concerts</x:t>
+  </x:si>
+  <x:si>
+    <x:t>film | picture | motion picture | feature | feature film | flick | talkie | moving picture</x:t>
+  </x:si>
+  <x:si>
+    <x:t>a story or event recorded by a camera as a set of moving images and shown in a theater or on television; a motion picture.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.merriam-webster.com/dictionary/movie | https://en.wikipedia.org/wiki/Film | https://www.movies.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Definition of Movie by Merriam-Webster | Film - Wikipedia | Movies.com - Official Site</x:t>
+  </x:si>
+  <x:si>
+    <x:t>a musical performance given in public, typically by several performers or of several separate compositions.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>musical performance | musical entertainment | show | production | presentation | recital | prom | promenade concert | pop concert | rock concert | gig | jam session</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.merriam-webster.com/dictionary/concert | https://en.wikipedia.org/wiki/Concert</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Definition of Concert by Merriam-Webster | Concert - Wikipedia</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Horror</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Comedy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Classical</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rock</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Organizational Unit</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Icon</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Classical </x:t>
+  </x:si>
+  <x:si>
+    <x:t>NsmiV2Code</x:t>
+  </x:si>
+  <x:si>
+    <x:t>xx-01-00-00-00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>xx-02-00-00-00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>xx-03-00-00-00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>xx-04-00-00-00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>xx-05-00-00-00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>xx-06-00-00-00</x:t>
+  </x:si>
+</x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -820,241 +940,258 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M7"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="40.1796875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="45.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.26953125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23.7265625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.1796875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.1796875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="19" style="1" customWidth="1"/>
-    <col min="9" max="9" width="18.26953125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="30.81640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="44.54296875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="23.81640625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="12.1796875" customWidth="1"/>
-    <col min="14" max="16384" width="9.1796875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="87.5" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="M2" s="11"/>
-    </row>
-    <row r="3" spans="1:13" ht="87" x14ac:dyDescent="0.35">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="L3" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="M3" s="11"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="11"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="11"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="6"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:L7" xr:uid="{C912F73C-9B43-411D-A65B-6666D50CA0F1}"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
+  <x:dimension ref="A1:N7"/>
+  <x:sheetViews>
+    <x:sheetView tabSelected="1" topLeftCell="E1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <x:selection activeCell="N1" sqref="N1:N7"/>
+    </x:sheetView>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <x:cols>
+    <x:col min="1" max="1" width="40.140625" style="1" customWidth="1"/>
+    <x:col min="2" max="2" width="45.140625" style="1" bestFit="1" customWidth="1"/>
+    <x:col min="3" max="3" width="34.85546875" style="1" bestFit="1" customWidth="1"/>
+    <x:col min="4" max="4" width="26.28515625" style="1" customWidth="1"/>
+    <x:col min="5" max="5" width="23.7109375" style="1" customWidth="1"/>
+    <x:col min="6" max="6" width="14.140625" style="1" customWidth="1"/>
+    <x:col min="7" max="7" width="19.140625" style="1" customWidth="1"/>
+    <x:col min="8" max="8" width="19" style="1" customWidth="1"/>
+    <x:col min="9" max="9" width="18.28515625" style="1" customWidth="1"/>
+    <x:col min="10" max="10" width="30.85546875" style="1" customWidth="1"/>
+    <x:col min="11" max="11" width="44.5703125" style="1" customWidth="1"/>
+    <x:col min="12" max="12" width="23.85546875" style="1" customWidth="1"/>
+    <x:col min="13" max="13" width="12.140625" customWidth="1"/>
+    <x:col min="14" max="16384" width="9.140625" style="1"/>
+  </x:cols>
+  <x:sheetData>
+    <x:row r="1" spans="1:14" s="2" customFormat="1" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <x:c r="A1" s="3" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" s="3" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C1" s="3" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D1" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E1" s="3" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="F1" s="3" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="G1" s="3" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="H1" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="I1" s="3" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="J1" s="4" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="K1" s="4" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="L1" s="4" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="M1" s="10" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="N1" s="2" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:14" ht="105.75" thickTop="1" x14ac:dyDescent="0.25">
+      <x:c r="A2" s="5"/>
+      <x:c r="B2" s="5" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C2" s="5"/>
+      <x:c r="D2" s="5" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="E2" s="5" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F2" s="5" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G2" s="5"/>
+      <x:c r="H2" s="5"/>
+      <x:c r="I2" s="5"/>
+      <x:c r="J2" s="5" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="K2" s="5" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="L2" s="9" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="M2" s="11"/>
+      <x:c r="N2" s="1" t="s">
+        <x:v>31</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:14" ht="105" x14ac:dyDescent="0.25">
+      <x:c r="A3" s="5"/>
+      <x:c r="B3" s="5" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C3" s="7"/>
+      <x:c r="D3" s="5" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="E3" s="5" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F3" s="5" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="G3" s="5"/>
+      <x:c r="H3" s="5"/>
+      <x:c r="I3" s="5"/>
+      <x:c r="J3" s="5" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="K3" s="8" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="L3" s="9" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="M3" s="11"/>
+      <x:c r="N3" s="1" t="s">
+        <x:v>32</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <x:c r="A4" s="5"/>
+      <x:c r="B4" s="5" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="C4" s="7" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D4" s="5" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E4" s="5" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F4" s="5" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G4" s="5"/>
+      <x:c r="H4" s="5"/>
+      <x:c r="I4" s="5"/>
+      <x:c r="J4" s="5"/>
+      <x:c r="K4" s="5"/>
+      <x:c r="L4" s="6"/>
+      <x:c r="M4" s="11"/>
+      <x:c r="N4" s="1" t="s">
+        <x:v>33</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <x:c r="A5" s="5"/>
+      <x:c r="B5" s="5" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C5" s="7" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D5" s="5" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E5" s="5" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F5" s="5" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G5" s="5"/>
+      <x:c r="H5" s="5"/>
+      <x:c r="I5" s="5"/>
+      <x:c r="J5" s="5"/>
+      <x:c r="K5" s="5"/>
+      <x:c r="L5" s="6"/>
+      <x:c r="M5" s="11"/>
+      <x:c r="N5" s="1" t="s">
+        <x:v>34</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <x:c r="A6" s="5"/>
+      <x:c r="B6" s="5" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C6" s="7" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D6" s="5" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="E6" s="5" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F6" s="5" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="G6" s="5"/>
+      <x:c r="H6" s="5"/>
+      <x:c r="I6" s="5"/>
+      <x:c r="J6" s="5"/>
+      <x:c r="K6" s="5"/>
+      <x:c r="L6" s="6"/>
+      <x:c r="N6" s="1" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <x:c r="A7" s="5"/>
+      <x:c r="B7" s="5" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="C7" s="7" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D7" s="5" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="E7" s="5" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F7" s="5" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="G7" s="5"/>
+      <x:c r="H7" s="5"/>
+      <x:c r="I7" s="5"/>
+      <x:c r="J7" s="5"/>
+      <x:c r="K7" s="5"/>
+      <x:c r="L7" s="5"/>
+      <x:c r="N7" s="1" t="s">
+        <x:v>36</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:autoFilter ref="A1:L7" xr:uid="{C912F73C-9B43-411D-A65B-6666D50CA0F1}"/>
+  <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <x:pageSetup orientation="portrait" r:id="rId1"/>
+  <x:legacyDrawing r:id="rId2"/>
+</x:worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003E7D4F9E02A40A44B19573CF3549EA08" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ace961a321deb82782cd5c0baf6e3ff0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="82b34e2e-8e49-44a7-8df8-19c48343e702" xmlns:ns3="ae66a276-7bf3-42b9-ad7d-2d219e3e493c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3d6053f4621972f75917b35bd6cb2e7c" ns2:_="" ns3:_="">
     <xsd:import namespace="82b34e2e-8e49-44a7-8df8-19c48343e702"/>
@@ -1263,6 +1400,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1273,23 +1416,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{45AFD11D-619E-4789-9AB2-38DC61A617DB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="ae66a276-7bf3-42b9-ad7d-2d219e3e493c"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="82b34e2e-8e49-44a7-8df8-19c48343e702"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF9B199E-FE17-4307-ADDF-10E54591F7D9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1308,6 +1434,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{45AFD11D-619E-4789-9AB2-38DC61A617DB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="ae66a276-7bf3-42b9-ad7d-2d219e3e493c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="82b34e2e-8e49-44a7-8df8-19c48343e702"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{35901C47-32BC-43B4-8135-6D146A35A1F4}">
   <ds:schemaRefs>
